--- a/data/coded_segments/md_4_3.xlsx
+++ b/data/coded_segments/md_4_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C38932F-4C55-AD48-A434-50524E385529}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5167A5B1-7D16-DC4B-B418-45A527F97763}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2833" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2833" uniqueCount="720">
   <si>
     <t>Color</t>
   </si>
@@ -1618,121 +1618,109 @@
     <t>aztreonam</t>
   </si>
   <si>
-    <t>2: 769</t>
-  </si>
-  <si>
-    <t>2: 779</t>
+    <t>2: 792</t>
+  </si>
+  <si>
+    <t>2: 803</t>
+  </si>
+  <si>
+    <t>levofloxacin</t>
   </si>
   <si>
     <t>8/4/18 01:18:00</t>
   </si>
   <si>
-    <t>2: 782</t>
-  </si>
-  <si>
-    <t>2: 789</t>
+    <t>2: 810</t>
+  </si>
+  <si>
+    <t>2: 822</t>
+  </si>
+  <si>
+    <t>2: 2684</t>
+  </si>
+  <si>
+    <t>2: 2697</t>
+  </si>
+  <si>
+    <t>cephalosporins</t>
+  </si>
+  <si>
+    <t>2: 2784</t>
+  </si>
+  <si>
+    <t>2: 2786</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16</t>
+  </si>
+  <si>
+    <t>2: 2789</t>
+  </si>
+  <si>
+    <t>2: 2791</t>
+  </si>
+  <si>
+    <t>¢64</t>
+  </si>
+  <si>
+    <t>2: 2722</t>
+  </si>
+  <si>
+    <t>2: 2730</t>
+  </si>
+  <si>
+    <t>cefazolin</t>
+  </si>
+  <si>
+    <t>8/4/18 01:19:00</t>
+  </si>
+  <si>
+    <t>2: 2733</t>
+  </si>
+  <si>
+    <t>2: 2743</t>
+  </si>
+  <si>
+    <t>ceftriaxone</t>
+  </si>
+  <si>
+    <t>2: 2794</t>
+  </si>
+  <si>
+    <t>2: 2796</t>
+  </si>
+  <si>
+    <t>2: 2711</t>
+  </si>
+  <si>
+    <t>2: 2719</t>
+  </si>
+  <si>
+    <t>cefotetan</t>
+  </si>
+  <si>
+    <t>2: 2746</t>
+  </si>
+  <si>
+    <t>2: 2756</t>
+  </si>
+  <si>
+    <t>8/4/18 01:20:00</t>
+  </si>
+  <si>
+    <t>2: 2799</t>
+  </si>
+  <si>
+    <t>2: 2801</t>
+  </si>
+  <si>
+    <t>2: 2763</t>
+  </si>
+  <si>
+    <t>2: 2770</t>
   </si>
   <si>
     <t>cefepime</t>
-  </si>
-  <si>
-    <t>2: 792</t>
-  </si>
-  <si>
-    <t>2: 803</t>
-  </si>
-  <si>
-    <t>levofloxacin</t>
-  </si>
-  <si>
-    <t>2: 810</t>
-  </si>
-  <si>
-    <t>2: 822</t>
-  </si>
-  <si>
-    <t>2: 2684</t>
-  </si>
-  <si>
-    <t>2: 2697</t>
-  </si>
-  <si>
-    <t>cephalosporins</t>
-  </si>
-  <si>
-    <t>2: 2784</t>
-  </si>
-  <si>
-    <t>2: 2786</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16</t>
-  </si>
-  <si>
-    <t>2: 2789</t>
-  </si>
-  <si>
-    <t>2: 2791</t>
-  </si>
-  <si>
-    <t>¢64</t>
-  </si>
-  <si>
-    <t>2: 2722</t>
-  </si>
-  <si>
-    <t>2: 2730</t>
-  </si>
-  <si>
-    <t>cefazolin</t>
-  </si>
-  <si>
-    <t>8/4/18 01:19:00</t>
-  </si>
-  <si>
-    <t>2: 2733</t>
-  </si>
-  <si>
-    <t>2: 2743</t>
-  </si>
-  <si>
-    <t>ceftriaxone</t>
-  </si>
-  <si>
-    <t>2: 2794</t>
-  </si>
-  <si>
-    <t>2: 2796</t>
-  </si>
-  <si>
-    <t>2: 2711</t>
-  </si>
-  <si>
-    <t>2: 2719</t>
-  </si>
-  <si>
-    <t>cefotetan</t>
-  </si>
-  <si>
-    <t>2: 2746</t>
-  </si>
-  <si>
-    <t>2: 2756</t>
-  </si>
-  <si>
-    <t>8/4/18 01:20:00</t>
-  </si>
-  <si>
-    <t>2: 2799</t>
-  </si>
-  <si>
-    <t>2: 2801</t>
-  </si>
-  <si>
-    <t>2: 2763</t>
-  </si>
-  <si>
-    <t>2: 2770</t>
   </si>
   <si>
     <t>2: 2807</t>
@@ -2199,6 +2187,21 @@
   </si>
   <si>
     <t>10/29/18 11:50:00</t>
+  </si>
+  <si>
+    <t>1: 2896</t>
+  </si>
+  <si>
+    <t>1: 2899</t>
+  </si>
+  <si>
+    <t>11/12/18 13:37:00</t>
+  </si>
+  <si>
+    <t>1: 2888</t>
+  </si>
+  <si>
+    <t>1: 2894</t>
   </si>
 </sst>
 </file>
@@ -10248,19 +10251,19 @@
         <v>0</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>190</v>
+        <v>530</v>
       </c>
       <c r="J185" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K185" s="4">
-        <v>6.2506999999999993E-2</v>
+        <v>6.8190000000000001E-2</v>
       </c>
       <c r="L185" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M185" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="186" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10280,28 +10283,28 @@
         <v>71</v>
       </c>
       <c r="F186" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="H186" s="3">
+        <v>0</v>
+      </c>
+      <c r="I186" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="J186" s="3">
+        <v>13</v>
+      </c>
+      <c r="K186" s="4">
+        <v>7.3871999999999993E-2</v>
+      </c>
+      <c r="L186" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M186" s="1" t="s">
         <v>531</v>
-      </c>
-      <c r="G186" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="H186" s="3">
-        <v>0</v>
-      </c>
-      <c r="I186" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="J186" s="3">
-        <v>8</v>
-      </c>
-      <c r="K186" s="4">
-        <v>4.546E-2</v>
-      </c>
-      <c r="L186" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M186" s="1" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10333,16 +10336,16 @@
         <v>536</v>
       </c>
       <c r="J187" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K187" s="4">
-        <v>6.8190000000000001E-2</v>
+        <v>7.9554E-2</v>
       </c>
       <c r="L187" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M187" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="188" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10359,31 +10362,31 @@
         <v>502</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="H188" s="3">
         <v>0</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>199</v>
+        <v>536</v>
       </c>
       <c r="J188" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K188" s="4">
-        <v>7.3871999999999993E-2</v>
+        <v>7.9554E-2</v>
       </c>
       <c r="L188" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M188" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="189" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10400,31 +10403,31 @@
         <v>502</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F189" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="H189" s="3">
+        <v>0</v>
+      </c>
+      <c r="I189" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="G189" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="H189" s="3">
-        <v>0</v>
-      </c>
-      <c r="I189" s="2" t="s">
-        <v>541</v>
-      </c>
       <c r="J189" s="3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="K189" s="4">
-        <v>7.9554E-2</v>
+        <v>1.1365E-2</v>
       </c>
       <c r="L189" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M189" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="190" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10441,31 +10444,31 @@
         <v>502</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F190" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="H190" s="3">
+        <v>0</v>
+      </c>
+      <c r="I190" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="G190" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="H190" s="3">
-        <v>0</v>
-      </c>
-      <c r="I190" s="2" t="s">
-        <v>541</v>
-      </c>
       <c r="J190" s="3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="K190" s="4">
-        <v>7.9554E-2</v>
+        <v>1.1365E-2</v>
       </c>
       <c r="L190" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M190" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="191" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10482,31 +10485,31 @@
         <v>502</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F191" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="H191" s="3">
+        <v>0</v>
+      </c>
+      <c r="I191" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="G191" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="H191" s="3">
-        <v>0</v>
-      </c>
-      <c r="I191" s="2" t="s">
-        <v>544</v>
-      </c>
       <c r="J191" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K191" s="4">
-        <v>1.1365E-2</v>
+        <v>1.7047E-2</v>
       </c>
       <c r="L191" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M191" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="192" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10526,28 +10529,28 @@
         <v>80</v>
       </c>
       <c r="F192" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="H192" s="3">
+        <v>0</v>
+      </c>
+      <c r="I192" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="G192" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="H192" s="3">
-        <v>0</v>
-      </c>
-      <c r="I192" s="2" t="s">
-        <v>544</v>
-      </c>
       <c r="J192" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K192" s="4">
-        <v>1.1365E-2</v>
+        <v>1.7047E-2</v>
       </c>
       <c r="L192" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M192" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="193" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10564,31 +10567,31 @@
         <v>502</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F193" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H193" s="3">
+        <v>0</v>
+      </c>
+      <c r="I193" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="G193" s="1" t="s">
+      <c r="J193" s="3">
+        <v>9</v>
+      </c>
+      <c r="K193" s="4">
+        <v>5.1142E-2</v>
+      </c>
+      <c r="L193" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M193" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="H193" s="3">
-        <v>0</v>
-      </c>
-      <c r="I193" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="J193" s="3">
-        <v>3</v>
-      </c>
-      <c r="K193" s="4">
-        <v>1.7047E-2</v>
-      </c>
-      <c r="L193" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M193" s="1" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="194" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10605,31 +10608,31 @@
         <v>502</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F194" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H194" s="3">
+        <v>0</v>
+      </c>
+      <c r="I194" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="G194" s="1" t="s">
+      <c r="J194" s="3">
+        <v>9</v>
+      </c>
+      <c r="K194" s="4">
+        <v>5.1142E-2</v>
+      </c>
+      <c r="L194" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M194" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="H194" s="3">
-        <v>0</v>
-      </c>
-      <c r="I194" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="J194" s="3">
-        <v>3</v>
-      </c>
-      <c r="K194" s="4">
-        <v>1.7047E-2</v>
-      </c>
-      <c r="L194" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M194" s="1" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="195" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10646,31 +10649,31 @@
         <v>502</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="F195" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G195" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="G195" s="1" t="s">
+      <c r="H195" s="3">
+        <v>0</v>
+      </c>
+      <c r="I195" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="H195" s="3">
-        <v>0</v>
-      </c>
-      <c r="I195" s="2" t="s">
-        <v>550</v>
-      </c>
       <c r="J195" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K195" s="4">
-        <v>5.1142E-2</v>
+        <v>6.2506999999999993E-2</v>
       </c>
       <c r="L195" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M195" s="1" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="196" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10687,31 +10690,31 @@
         <v>502</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F196" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G196" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="G196" s="1" t="s">
+      <c r="H196" s="3">
+        <v>0</v>
+      </c>
+      <c r="I196" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="H196" s="3">
-        <v>0</v>
-      </c>
-      <c r="I196" s="2" t="s">
-        <v>550</v>
-      </c>
       <c r="J196" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K196" s="4">
-        <v>5.1142E-2</v>
+        <v>6.2506999999999993E-2</v>
       </c>
       <c r="L196" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M196" s="1" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="197" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10728,31 +10731,31 @@
         <v>502</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H197" s="3">
         <v>0</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="J197" s="3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K197" s="4">
-        <v>6.2506999999999993E-2</v>
+        <v>1.7047E-2</v>
       </c>
       <c r="L197" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M197" s="1" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="198" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10769,31 +10772,31 @@
         <v>502</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H198" s="3">
         <v>0</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="J198" s="3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K198" s="4">
-        <v>6.2506999999999993E-2</v>
+        <v>1.7047E-2</v>
       </c>
       <c r="L198" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M198" s="1" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="199" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10810,31 +10813,31 @@
         <v>502</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H199" s="3">
         <v>0</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="J199" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K199" s="4">
-        <v>1.7047E-2</v>
+        <v>5.1142E-2</v>
       </c>
       <c r="L199" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M199" s="1" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="200" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10851,7 +10854,7 @@
         <v>502</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>555</v>
@@ -10863,19 +10866,19 @@
         <v>0</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>547</v>
+        <v>190</v>
       </c>
       <c r="J200" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K200" s="4">
-        <v>1.7047E-2</v>
+        <v>6.2506999999999993E-2</v>
       </c>
       <c r="L200" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M200" s="1" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="201" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10892,31 +10895,31 @@
         <v>502</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F201" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="H201" s="3">
+        <v>0</v>
+      </c>
+      <c r="I201" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J201" s="3">
+        <v>11</v>
+      </c>
+      <c r="K201" s="4">
+        <v>6.2506999999999993E-2</v>
+      </c>
+      <c r="L201" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M201" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="G201" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="H201" s="3">
-        <v>0</v>
-      </c>
-      <c r="I201" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="J201" s="3">
-        <v>9</v>
-      </c>
-      <c r="K201" s="4">
-        <v>5.1142E-2</v>
-      </c>
-      <c r="L201" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M201" s="1" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="202" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10933,31 +10936,31 @@
         <v>502</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H202" s="3">
         <v>0</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>190</v>
+        <v>542</v>
       </c>
       <c r="J202" s="3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K202" s="4">
-        <v>6.2506999999999993E-2</v>
+        <v>1.7047E-2</v>
       </c>
       <c r="L202" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M202" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="203" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10974,31 +10977,31 @@
         <v>502</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H203" s="3">
         <v>0</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>190</v>
+        <v>542</v>
       </c>
       <c r="J203" s="3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K203" s="4">
-        <v>6.2506999999999993E-2</v>
+        <v>1.7047E-2</v>
       </c>
       <c r="L203" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M203" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="204" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11015,31 +11018,31 @@
         <v>502</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="H204" s="3">
         <v>0</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="J204" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K204" s="4">
-        <v>1.7047E-2</v>
+        <v>4.546E-2</v>
       </c>
       <c r="L204" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M204" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="205" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11056,31 +11059,31 @@
         <v>502</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="H205" s="3">
         <v>0</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="J205" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K205" s="4">
-        <v>1.7047E-2</v>
+        <v>4.546E-2</v>
       </c>
       <c r="L205" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M205" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="206" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11097,19 +11100,19 @@
         <v>502</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>71</v>
+        <v>223</v>
       </c>
       <c r="F206" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H206" s="3">
+        <v>0</v>
+      </c>
+      <c r="I206" s="2" t="s">
         <v>565</v>
-      </c>
-      <c r="G206" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="H206" s="3">
-        <v>0</v>
-      </c>
-      <c r="I206" s="2" t="s">
-        <v>533</v>
       </c>
       <c r="J206" s="3">
         <v>8</v>
@@ -11121,7 +11124,7 @@
         <v>19</v>
       </c>
       <c r="M206" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="207" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11138,19 +11141,19 @@
         <v>502</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>223</v>
+        <v>80</v>
       </c>
       <c r="F207" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H207" s="3">
+        <v>0</v>
+      </c>
+      <c r="I207" s="2" t="s">
         <v>565</v>
-      </c>
-      <c r="G207" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="H207" s="3">
-        <v>0</v>
-      </c>
-      <c r="I207" s="2" t="s">
-        <v>533</v>
       </c>
       <c r="J207" s="3">
         <v>8</v>
@@ -11162,7 +11165,7 @@
         <v>19</v>
       </c>
       <c r="M207" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="208" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11176,10 +11179,10 @@
         <v>14</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>502</v>
+        <v>566</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>223</v>
+        <v>16</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>567</v>
@@ -11194,16 +11197,16 @@
         <v>569</v>
       </c>
       <c r="J208" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K208" s="4">
-        <v>4.546E-2</v>
+        <v>1.0135999999999999E-2</v>
       </c>
       <c r="L208" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M208" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="209" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11217,34 +11220,34 @@
         <v>14</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>502</v>
+        <v>566</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="H209" s="3">
         <v>0</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>569</v>
+        <v>100</v>
       </c>
       <c r="J209" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K209" s="4">
-        <v>4.546E-2</v>
+        <v>3.0407E-2</v>
       </c>
       <c r="L209" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M209" s="1" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="210" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11258,37 +11261,37 @@
         <v>14</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="G210" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="H210" s="3">
+        <v>0</v>
+      </c>
+      <c r="I210" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="J210" s="3">
+        <v>9</v>
+      </c>
+      <c r="K210" s="4">
+        <v>4.5610999999999999E-2</v>
+      </c>
+      <c r="L210" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M210" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="H210" s="3">
-        <v>0</v>
-      </c>
-      <c r="I210" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="J210" s="3">
-        <v>2</v>
-      </c>
-      <c r="K210" s="4">
-        <v>1.0135999999999999E-2</v>
-      </c>
-      <c r="L210" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M210" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
         <v>13</v>
       </c>
@@ -11299,34 +11302,34 @@
         <v>14</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="H211" s="3">
         <v>0</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>100</v>
+        <v>578</v>
       </c>
       <c r="J211" s="3">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="K211" s="4">
-        <v>3.0407E-2</v>
+        <v>0.116562</v>
       </c>
       <c r="L211" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M211" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="212" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11340,37 +11343,37 @@
         <v>14</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="H212" s="3">
         <v>0</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="J212" s="3">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K212" s="4">
-        <v>4.5610999999999999E-2</v>
+        <v>8.1087000000000006E-2</v>
       </c>
       <c r="L212" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M212" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="s">
         <v>13</v>
       </c>
@@ -11381,34 +11384,34 @@
         <v>14</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H213" s="3">
         <v>0</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="J213" s="3">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="K213" s="4">
-        <v>0.116562</v>
+        <v>2.5340000000000001E-2</v>
       </c>
       <c r="L213" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M213" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="214" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11422,34 +11425,34 @@
         <v>14</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>63</v>
+        <v>159</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="H214" s="3">
         <v>0</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="J214" s="3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K214" s="4">
-        <v>8.1087000000000006E-2</v>
+        <v>2.0271999999999998E-2</v>
       </c>
       <c r="L214" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M214" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="215" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11463,22 +11466,22 @@
         <v>14</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="H215" s="3">
         <v>0</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>588</v>
+        <v>120</v>
       </c>
       <c r="J215" s="3">
         <v>5</v>
@@ -11490,7 +11493,7 @@
         <v>19</v>
       </c>
       <c r="M215" s="1" t="s">
-        <v>576</v>
+        <v>590</v>
       </c>
     </row>
     <row r="216" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11504,34 +11507,34 @@
         <v>14</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="G216" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="H216" s="3">
+        <v>0</v>
+      </c>
+      <c r="I216" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="J216" s="3">
+        <v>10</v>
+      </c>
+      <c r="K216" s="4">
+        <v>5.0679000000000002E-2</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M216" s="1" t="s">
         <v>590</v>
-      </c>
-      <c r="H216" s="3">
-        <v>0</v>
-      </c>
-      <c r="I216" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="J216" s="3">
-        <v>4</v>
-      </c>
-      <c r="K216" s="4">
-        <v>2.0271999999999998E-2</v>
-      </c>
-      <c r="L216" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M216" s="1" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="217" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11545,34 +11548,34 @@
         <v>14</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="H217" s="3">
         <v>0</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>120</v>
+        <v>596</v>
       </c>
       <c r="J217" s="3">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="K217" s="4">
-        <v>2.5340000000000001E-2</v>
+        <v>0.111494</v>
       </c>
       <c r="L217" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M217" s="1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="218" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11586,34 +11589,34 @@
         <v>14</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>71</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H218" s="3">
         <v>0</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
       <c r="J218" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K218" s="4">
-        <v>5.0679000000000002E-2</v>
+        <v>4.0543000000000003E-2</v>
       </c>
       <c r="L218" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M218" s="1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="219" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11627,34 +11630,34 @@
         <v>14</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>71</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H219" s="3">
         <v>0</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>600</v>
+        <v>183</v>
       </c>
       <c r="J219" s="3">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K219" s="4">
-        <v>0.111494</v>
+        <v>4.0543000000000003E-2</v>
       </c>
       <c r="L219" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M219" s="1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="220" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11668,7 +11671,7 @@
         <v>14</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>71</v>
@@ -11683,19 +11686,19 @@
         <v>0</v>
       </c>
       <c r="I220" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J220" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K220" s="4">
-        <v>4.0543000000000003E-2</v>
+        <v>6.0815000000000001E-2</v>
       </c>
       <c r="L220" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M220" s="1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="221" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11709,7 +11712,7 @@
         <v>14</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>71</v>
@@ -11724,19 +11727,19 @@
         <v>0</v>
       </c>
       <c r="I221" s="2" t="s">
-        <v>183</v>
+        <v>298</v>
       </c>
       <c r="J221" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K221" s="4">
-        <v>4.0543000000000003E-2</v>
+        <v>5.5746999999999998E-2</v>
       </c>
       <c r="L221" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M221" s="1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="222" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11750,34 +11753,34 @@
         <v>14</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>570</v>
+        <v>605</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>71</v>
+        <v>398</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>606</v>
+        <v>31</v>
       </c>
       <c r="H222" s="3">
         <v>0</v>
       </c>
       <c r="I222" s="2" t="s">
-        <v>536</v>
+        <v>607</v>
       </c>
       <c r="J222" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K222" s="4">
-        <v>6.0815000000000001E-2</v>
+        <v>3.0009000000000001E-2</v>
       </c>
       <c r="L222" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M222" s="1" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
     </row>
     <row r="223" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11791,34 +11794,34 @@
         <v>14</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>570</v>
+        <v>609</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>71</v>
+        <v>398</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>607</v>
+        <v>31</v>
       </c>
       <c r="G223" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="H223" s="3">
+        <v>0</v>
+      </c>
+      <c r="I223" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="J223" s="3">
+        <v>14</v>
+      </c>
+      <c r="K223" s="4">
+        <v>5.4694E-2</v>
+      </c>
+      <c r="L223" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M223" s="1" t="s">
         <v>608</v>
-      </c>
-      <c r="H223" s="3">
-        <v>0</v>
-      </c>
-      <c r="I223" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="J223" s="3">
-        <v>11</v>
-      </c>
-      <c r="K223" s="4">
-        <v>5.5746999999999998E-2</v>
-      </c>
-      <c r="L223" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M223" s="1" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="224" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11832,34 +11835,34 @@
         <v>14</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>398</v>
+        <v>49</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>610</v>
+        <v>242</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>31</v>
+        <v>239</v>
       </c>
       <c r="H224" s="3">
         <v>0</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="J224" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K224" s="4">
-        <v>3.0009000000000001E-2</v>
+        <v>3.4123000000000001E-2</v>
       </c>
       <c r="L224" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M224" s="1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="225" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11873,34 +11876,34 @@
         <v>14</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>398</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>31</v>
+        <v>616</v>
       </c>
       <c r="G225" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="H225" s="3">
+        <v>0</v>
+      </c>
+      <c r="I225" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="J225" s="3">
+        <v>5</v>
+      </c>
+      <c r="K225" s="4">
+        <v>1.7905999999999998E-2</v>
+      </c>
+      <c r="L225" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M225" s="1" t="s">
         <v>614</v>
-      </c>
-      <c r="H225" s="3">
-        <v>0</v>
-      </c>
-      <c r="I225" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="J225" s="3">
-        <v>14</v>
-      </c>
-      <c r="K225" s="4">
-        <v>5.4694E-2</v>
-      </c>
-      <c r="L225" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M225" s="1" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="226" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11914,37 +11917,37 @@
         <v>14</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>242</v>
+        <v>620</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>239</v>
+        <v>621</v>
       </c>
       <c r="H226" s="3">
         <v>0</v>
       </c>
       <c r="I226" s="2" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="J226" s="3">
         <v>5</v>
       </c>
       <c r="K226" s="4">
-        <v>3.4123000000000001E-2</v>
+        <v>2.8239E-2</v>
       </c>
       <c r="L226" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M226" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
         <v>13</v>
       </c>
@@ -11955,34 +11958,34 @@
         <v>14</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>398</v>
+        <v>40</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>620</v>
+        <v>36</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="H227" s="3">
         <v>0</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="J227" s="3">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K227" s="4">
-        <v>1.7905999999999998E-2</v>
+        <v>1.4950730000000001</v>
       </c>
       <c r="L227" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M227" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="228" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11996,37 +11999,37 @@
         <v>14</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="H228" s="3">
         <v>0</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="J228" s="3">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K228" s="4">
-        <v>2.8239E-2</v>
+        <v>4.6975000000000003E-2</v>
       </c>
       <c r="L228" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M228" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="229" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="s">
         <v>13</v>
       </c>
@@ -12037,34 +12040,34 @@
         <v>14</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>36</v>
+        <v>631</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="H229" s="3">
         <v>0</v>
       </c>
       <c r="I229" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="J229" s="3">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="K229" s="4">
-        <v>1.4950730000000001</v>
+        <v>8.8872999999999994E-2</v>
       </c>
       <c r="L229" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M229" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="230" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12078,34 +12081,34 @@
         <v>14</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>631</v>
+        <v>30</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="H230" s="3">
         <v>0</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="J230" s="3">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="K230" s="4">
-        <v>4.6975000000000003E-2</v>
+        <v>5.4559999999999997E-2</v>
       </c>
       <c r="L230" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M230" s="1" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
     </row>
     <row r="231" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12119,34 +12122,34 @@
         <v>14</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="H231" s="3">
         <v>0</v>
       </c>
       <c r="I231" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="J231" s="3">
+        <v>20</v>
+      </c>
+      <c r="K231" s="4">
+        <v>0.10108200000000001</v>
+      </c>
+      <c r="L231" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M231" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="J231" s="3">
-        <v>10</v>
-      </c>
-      <c r="K231" s="4">
-        <v>8.8872999999999994E-2</v>
-      </c>
-      <c r="L231" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M231" s="1" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="232" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12163,31 +12166,31 @@
         <v>638</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>30</v>
+        <v>642</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="H232" s="3">
         <v>0</v>
       </c>
       <c r="I232" s="2" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="J232" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K232" s="4">
-        <v>5.4559999999999997E-2</v>
+        <v>1.0108000000000001E-2</v>
       </c>
       <c r="L232" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M232" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="233" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12201,34 +12204,34 @@
         <v>14</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="H233" s="3">
         <v>0</v>
       </c>
       <c r="I233" s="2" t="s">
-        <v>645</v>
+        <v>278</v>
       </c>
       <c r="J233" s="3">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="K233" s="4">
-        <v>0.10108200000000001</v>
+        <v>1.5162E-2</v>
       </c>
       <c r="L233" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M233" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="234" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12242,34 +12245,34 @@
         <v>14</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H234" s="3">
         <v>0</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="J234" s="3">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="K234" s="4">
-        <v>1.0108000000000001E-2</v>
+        <v>0.11119</v>
       </c>
       <c r="L234" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="235" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12283,34 +12286,34 @@
         <v>14</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H235" s="3">
         <v>0</v>
       </c>
       <c r="I235" s="2" t="s">
-        <v>278</v>
+        <v>652</v>
       </c>
       <c r="J235" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K235" s="4">
-        <v>1.5162E-2</v>
+        <v>3.0324E-2</v>
       </c>
       <c r="L235" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="236" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12324,34 +12327,34 @@
         <v>14</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>146</v>
+        <v>67</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="H236" s="3">
         <v>0</v>
       </c>
       <c r="I236" s="2" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="J236" s="3">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="K236" s="4">
-        <v>0.11119</v>
+        <v>3.0324E-2</v>
       </c>
       <c r="L236" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M236" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="237" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12365,34 +12368,34 @@
         <v>14</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H237" s="3">
         <v>0</v>
       </c>
       <c r="I237" s="2" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="J237" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K237" s="4">
-        <v>3.0324E-2</v>
+        <v>2.0216000000000001E-2</v>
       </c>
       <c r="L237" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M237" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="238" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12406,34 +12409,34 @@
         <v>14</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H238" s="3">
         <v>0</v>
       </c>
       <c r="I238" s="2" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="J238" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K238" s="4">
-        <v>3.0324E-2</v>
+        <v>4.0432999999999997E-2</v>
       </c>
       <c r="L238" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M238" s="1" t="s">
-        <v>641</v>
+        <v>662</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12447,34 +12450,34 @@
         <v>14</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="H239" s="3">
         <v>0</v>
       </c>
       <c r="I239" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="J239" s="3">
+        <v>15</v>
+      </c>
+      <c r="K239" s="4">
+        <v>7.5811000000000003E-2</v>
+      </c>
+      <c r="L239" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M239" s="1" t="s">
         <v>662</v>
-      </c>
-      <c r="J239" s="3">
-        <v>4</v>
-      </c>
-      <c r="K239" s="4">
-        <v>2.0216000000000001E-2</v>
-      </c>
-      <c r="L239" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M239" s="1" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="240" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12488,22 +12491,22 @@
         <v>14</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="H240" s="3">
         <v>0</v>
       </c>
       <c r="I240" s="2" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="J240" s="3">
         <v>8</v>
@@ -12515,7 +12518,7 @@
         <v>19</v>
       </c>
       <c r="M240" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="241" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12529,34 +12532,34 @@
         <v>14</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="H241" s="3">
         <v>0</v>
       </c>
       <c r="I241" s="2" t="s">
-        <v>669</v>
+        <v>199</v>
       </c>
       <c r="J241" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K241" s="4">
-        <v>7.5811000000000003E-2</v>
+        <v>6.5702999999999998E-2</v>
       </c>
       <c r="L241" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M241" s="1" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="242" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12570,37 +12573,37 @@
         <v>14</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="G242" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="H242" s="3">
+        <v>0</v>
+      </c>
+      <c r="I242" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J242" s="3">
+        <v>10</v>
+      </c>
+      <c r="K242" s="4">
+        <v>5.0541000000000003E-2</v>
+      </c>
+      <c r="L242" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M242" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="H242" s="3">
-        <v>0</v>
-      </c>
-      <c r="I242" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="J242" s="3">
-        <v>8</v>
-      </c>
-      <c r="K242" s="4">
-        <v>4.0432999999999997E-2</v>
-      </c>
-      <c r="L242" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M242" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="243" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A243" s="6" t="s">
         <v>13</v>
       </c>
@@ -12611,22 +12614,22 @@
         <v>14</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>71</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H243" s="3">
         <v>0</v>
       </c>
       <c r="I243" s="2" t="s">
-        <v>199</v>
+        <v>676</v>
       </c>
       <c r="J243" s="3">
         <v>13</v>
@@ -12638,7 +12641,7 @@
         <v>19</v>
       </c>
       <c r="M243" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="244" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12652,37 +12655,37 @@
         <v>14</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>71</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H244" s="3">
         <v>0</v>
       </c>
       <c r="I244" s="2" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="J244" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K244" s="4">
-        <v>5.0541000000000003E-2</v>
+        <v>4.0432999999999997E-2</v>
       </c>
       <c r="L244" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M244" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="245" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="6" t="s">
         <v>13</v>
       </c>
@@ -12693,34 +12696,34 @@
         <v>14</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H245" s="3">
         <v>0</v>
       </c>
       <c r="I245" s="2" t="s">
-        <v>680</v>
+        <v>463</v>
       </c>
       <c r="J245" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="K245" s="4">
-        <v>6.5702999999999998E-2</v>
+        <v>1.0108000000000001E-2</v>
       </c>
       <c r="L245" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M245" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="246" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12734,34 +12737,34 @@
         <v>14</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="F246" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G246" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="G246" s="1" t="s">
-        <v>682</v>
-      </c>
       <c r="H246" s="3">
         <v>0</v>
       </c>
       <c r="I246" s="2" t="s">
-        <v>183</v>
+        <v>278</v>
       </c>
       <c r="J246" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K246" s="4">
-        <v>4.0432999999999997E-2</v>
+        <v>1.5162E-2</v>
       </c>
       <c r="L246" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M246" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="247" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12775,34 +12778,34 @@
         <v>14</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="F247" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="G247" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="G247" s="1" t="s">
-        <v>684</v>
-      </c>
       <c r="H247" s="3">
         <v>0</v>
       </c>
       <c r="I247" s="2" t="s">
-        <v>463</v>
+        <v>652</v>
       </c>
       <c r="J247" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K247" s="4">
-        <v>1.0108000000000001E-2</v>
+        <v>3.0324E-2</v>
       </c>
       <c r="L247" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M247" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="248" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12816,34 +12819,34 @@
         <v>14</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>284</v>
+        <v>684</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>685</v>
+        <v>299</v>
       </c>
       <c r="H248" s="3">
         <v>0</v>
       </c>
       <c r="I248" s="2" t="s">
-        <v>278</v>
+        <v>655</v>
       </c>
       <c r="J248" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K248" s="4">
-        <v>1.5162E-2</v>
+        <v>3.0324E-2</v>
       </c>
       <c r="L248" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M248" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="249" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12857,34 +12860,34 @@
         <v>14</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="F249" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="G249" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="G249" s="1" t="s">
-        <v>687</v>
-      </c>
       <c r="H249" s="3">
         <v>0</v>
       </c>
       <c r="I249" s="2" t="s">
-        <v>656</v>
+        <v>124</v>
       </c>
       <c r="J249" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K249" s="4">
-        <v>3.0324E-2</v>
+        <v>2.0216000000000001E-2</v>
       </c>
       <c r="L249" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M249" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="250" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12898,34 +12901,34 @@
         <v>14</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>67</v>
+        <v>398</v>
       </c>
       <c r="F250" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G250" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="G250" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="H250" s="3">
         <v>0</v>
       </c>
       <c r="I250" s="2" t="s">
-        <v>659</v>
+        <v>689</v>
       </c>
       <c r="J250" s="3">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="K250" s="4">
-        <v>3.0324E-2</v>
+        <v>0.117997</v>
       </c>
       <c r="L250" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M250" s="1" t="s">
-        <v>675</v>
+        <v>690</v>
       </c>
     </row>
     <row r="251" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12939,34 +12942,34 @@
         <v>14</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>642</v>
+        <v>691</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>121</v>
+        <v>398</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="G251" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H251" s="3">
+        <v>0</v>
+      </c>
+      <c r="I251" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="J251" s="3">
+        <v>8</v>
+      </c>
+      <c r="K251" s="4">
+        <v>3.7575999999999998E-2</v>
+      </c>
+      <c r="L251" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M251" s="1" t="s">
         <v>690</v>
-      </c>
-      <c r="H251" s="3">
-        <v>0</v>
-      </c>
-      <c r="I251" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J251" s="3">
-        <v>4</v>
-      </c>
-      <c r="K251" s="4">
-        <v>2.0216000000000001E-2</v>
-      </c>
-      <c r="L251" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M251" s="1" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="252" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12983,31 +12986,31 @@
         <v>691</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>398</v>
+        <v>67</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>30</v>
+        <v>694</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="H252" s="3">
         <v>0</v>
       </c>
       <c r="I252" s="2" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="J252" s="3">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="K252" s="4">
-        <v>0.117997</v>
+        <v>3.7575999999999998E-2</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>19</v>
+        <v>697</v>
       </c>
       <c r="M252" s="1" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="253" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13021,75 +13024,75 @@
         <v>14</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="E253" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="H253" s="3">
+        <v>0</v>
+      </c>
+      <c r="I253" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="J253" s="3">
+        <v>5</v>
+      </c>
+      <c r="K253" s="4">
+        <v>2.3484999999999999E-2</v>
+      </c>
+      <c r="L253" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="M253" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" ht="120" x14ac:dyDescent="0.2">
+      <c r="A254" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="E254" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="F253" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="G253" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="H253" s="3">
-        <v>0</v>
-      </c>
-      <c r="I253" s="2" t="s">
+      <c r="F254" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="H254" s="3">
+        <v>0</v>
+      </c>
+      <c r="I254" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="J254" s="3">
+        <v>363</v>
+      </c>
+      <c r="K254" s="4">
+        <v>1.7050259999999999</v>
+      </c>
+      <c r="L254" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="J253" s="3">
-        <v>8</v>
-      </c>
-      <c r="K253" s="4">
-        <v>3.7575999999999998E-2</v>
-      </c>
-      <c r="L253" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M253" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="254" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A254" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F254" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="G254" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="H254" s="3">
-        <v>0</v>
-      </c>
-      <c r="I254" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="J254" s="3">
-        <v>8</v>
-      </c>
-      <c r="K254" s="4">
-        <v>3.7575999999999998E-2</v>
-      </c>
-      <c r="L254" s="1" t="s">
-        <v>701</v>
-      </c>
       <c r="M254" s="1" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
     </row>
     <row r="255" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13103,37 +13106,37 @@
         <v>14</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>695</v>
+        <v>407</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="H255" s="3">
         <v>0</v>
       </c>
       <c r="I255" s="2" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="J255" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K255" s="4">
-        <v>2.3484999999999999E-2</v>
+        <v>4.4420000000000001E-2</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="M255" s="1" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="256" spans="1:13" ht="120" x14ac:dyDescent="0.2">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
         <v>13</v>
       </c>
@@ -13144,31 +13147,31 @@
         <v>14</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>695</v>
+        <v>407</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>398</v>
+        <v>76</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>707</v>
+        <v>415</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>708</v>
+        <v>416</v>
       </c>
       <c r="H256" s="3">
         <v>0</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>709</v>
+        <v>417</v>
       </c>
       <c r="J256" s="3">
-        <v>363</v>
+        <v>2</v>
       </c>
       <c r="K256" s="4">
-        <v>1.7050259999999999</v>
+        <v>9.8709999999999996E-3</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="M256" s="1" t="s">
         <v>710</v>
@@ -13188,31 +13191,31 @@
         <v>407</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>711</v>
+        <v>421</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>712</v>
+        <v>422</v>
       </c>
       <c r="H257" s="3">
         <v>0</v>
       </c>
       <c r="I257" s="2" t="s">
-        <v>713</v>
+        <v>423</v>
       </c>
       <c r="J257" s="3">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="K257" s="4">
-        <v>4.4420000000000001E-2</v>
+        <v>0.118454</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="M257" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="258" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13232,28 +13235,28 @@
         <v>76</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="H258" s="3">
         <v>0</v>
       </c>
       <c r="I258" s="2" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="J258" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K258" s="4">
-        <v>9.8709999999999996E-3</v>
+        <v>2.4677999999999999E-2</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="M258" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="259" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13273,28 +13276,28 @@
         <v>76</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="H259" s="3">
         <v>0</v>
       </c>
       <c r="I259" s="2" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="J259" s="3">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K259" s="4">
-        <v>0.118454</v>
+        <v>6.4162999999999998E-2</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="M259" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="260" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13314,28 +13317,28 @@
         <v>76</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>419</v>
+        <v>198</v>
       </c>
       <c r="H260" s="3">
         <v>0</v>
       </c>
       <c r="I260" s="2" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="J260" s="3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K260" s="4">
-        <v>2.4677999999999999E-2</v>
+        <v>5.9227000000000002E-2</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="M260" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="261" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13355,28 +13358,28 @@
         <v>76</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="H261" s="3">
         <v>0</v>
       </c>
       <c r="I261" s="2" t="s">
-        <v>426</v>
+        <v>124</v>
       </c>
       <c r="J261" s="3">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K261" s="4">
-        <v>6.4162999999999998E-2</v>
+        <v>1.9741999999999999E-2</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="M261" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="262" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13393,31 +13396,31 @@
         <v>407</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>198</v>
+        <v>437</v>
       </c>
       <c r="H262" s="3">
         <v>0</v>
       </c>
       <c r="I262" s="2" t="s">
-        <v>443</v>
+        <v>278</v>
       </c>
       <c r="J262" s="3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K262" s="4">
-        <v>5.9227000000000002E-2</v>
+        <v>1.4807000000000001E-2</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="M262" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="263" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13434,31 +13437,31 @@
         <v>407</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="H263" s="3">
         <v>0</v>
       </c>
       <c r="I263" s="2" t="s">
-        <v>124</v>
+        <v>434</v>
       </c>
       <c r="J263" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K263" s="4">
-        <v>1.9741999999999999E-2</v>
+        <v>9.8709999999999996E-3</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="M263" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="264" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13478,28 +13481,28 @@
         <v>84</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="H264" s="3">
         <v>0</v>
       </c>
       <c r="I264" s="2" t="s">
-        <v>278</v>
+        <v>443</v>
       </c>
       <c r="J264" s="3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K264" s="4">
-        <v>1.4807000000000001E-2</v>
+        <v>5.9227000000000002E-2</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="M264" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13519,28 +13522,28 @@
         <v>84</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="H265" s="3">
         <v>0</v>
       </c>
       <c r="I265" s="2" t="s">
-        <v>434</v>
+        <v>124</v>
       </c>
       <c r="J265" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K265" s="4">
-        <v>9.8709999999999996E-3</v>
+        <v>1.9741999999999999E-2</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="M265" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="266" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13557,31 +13560,31 @@
         <v>407</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="H266" s="3">
         <v>0</v>
       </c>
       <c r="I266" s="2" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="J266" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K266" s="4">
-        <v>5.9227000000000002E-2</v>
+        <v>9.8709999999999996E-3</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="M266" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="267" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13598,31 +13601,31 @@
         <v>407</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="H267" s="3">
         <v>0</v>
       </c>
       <c r="I267" s="2" t="s">
-        <v>124</v>
+        <v>420</v>
       </c>
       <c r="J267" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K267" s="4">
-        <v>1.9741999999999999E-2</v>
+        <v>2.4677999999999999E-2</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="M267" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="268" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13642,28 +13645,28 @@
         <v>91</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="H268" s="3">
         <v>0</v>
       </c>
       <c r="I268" s="2" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="J268" s="3">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="K268" s="4">
-        <v>9.8709999999999996E-3</v>
+        <v>0.12339</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="M268" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="269" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13683,28 +13686,28 @@
         <v>91</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="H269" s="3">
         <v>0</v>
       </c>
       <c r="I269" s="2" t="s">
-        <v>420</v>
+        <v>457</v>
       </c>
       <c r="J269" s="3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="K269" s="4">
-        <v>2.4677999999999999E-2</v>
+        <v>6.4162999999999998E-2</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="M269" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="270" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13724,28 +13727,28 @@
         <v>91</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="H270" s="3">
         <v>0</v>
       </c>
       <c r="I270" s="2" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="J270" s="3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K270" s="4">
-        <v>0.12339</v>
+        <v>4.9355999999999997E-2</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="M270" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="271" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13762,31 +13765,31 @@
         <v>407</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>456</v>
+        <v>257</v>
       </c>
       <c r="H271" s="3">
         <v>0</v>
       </c>
       <c r="I271" s="2" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="J271" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="K271" s="4">
-        <v>6.4162999999999998E-2</v>
+        <v>9.8709999999999996E-3</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="M271" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="272" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13803,31 +13806,31 @@
         <v>407</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="H272" s="3">
         <v>0</v>
       </c>
       <c r="I272" s="2" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="J272" s="3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K272" s="4">
-        <v>4.9355999999999997E-2</v>
+        <v>0.12339</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="M272" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="273" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13847,28 +13850,28 @@
         <v>210</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>257</v>
+        <v>471</v>
       </c>
       <c r="H273" s="3">
         <v>0</v>
       </c>
       <c r="I273" s="2" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="J273" s="3">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="K273" s="4">
-        <v>9.8709999999999996E-3</v>
+        <v>7.4034000000000003E-2</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="M273" s="1" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="274" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13888,28 +13891,28 @@
         <v>210</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="H274" s="3">
         <v>0</v>
       </c>
       <c r="I274" s="2" t="s">
-        <v>467</v>
+        <v>120</v>
       </c>
       <c r="J274" s="3">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K274" s="4">
-        <v>0.12339</v>
+        <v>2.4677999999999999E-2</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="M274" s="1" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="275" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13926,31 +13929,31 @@
         <v>407</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="H275" s="3">
         <v>0</v>
       </c>
       <c r="I275" s="2" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="J275" s="3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K275" s="4">
-        <v>7.4034000000000003E-2</v>
+        <v>9.8709999999999996E-3</v>
       </c>
       <c r="L275" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="M275" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="276" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13967,31 +13970,31 @@
         <v>407</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="H276" s="3">
         <v>0</v>
       </c>
       <c r="I276" s="2" t="s">
-        <v>120</v>
+        <v>481</v>
       </c>
       <c r="J276" s="3">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="K276" s="4">
-        <v>2.4677999999999999E-2</v>
+        <v>0.11351899999999999</v>
       </c>
       <c r="L276" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="M276" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="277" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14011,28 +14014,28 @@
         <v>223</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="H277" s="3">
         <v>0</v>
       </c>
       <c r="I277" s="2" t="s">
-        <v>463</v>
+        <v>124</v>
       </c>
       <c r="J277" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K277" s="4">
-        <v>9.8709999999999996E-3</v>
+        <v>1.9741999999999999E-2</v>
       </c>
       <c r="L277" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="M277" s="1" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="278" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14049,31 +14052,31 @@
         <v>407</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="H278" s="3">
         <v>0</v>
       </c>
       <c r="I278" s="2" t="s">
-        <v>481</v>
+        <v>278</v>
       </c>
       <c r="J278" s="3">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="K278" s="4">
-        <v>0.11351899999999999</v>
+        <v>1.4807000000000001E-2</v>
       </c>
       <c r="L278" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="M278" s="1" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="279" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14090,31 +14093,31 @@
         <v>407</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="H279" s="3">
         <v>0</v>
       </c>
       <c r="I279" s="2" t="s">
-        <v>124</v>
+        <v>492</v>
       </c>
       <c r="J279" s="3">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="K279" s="4">
-        <v>1.9741999999999999E-2</v>
+        <v>9.3775999999999998E-2</v>
       </c>
       <c r="L279" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="M279" s="1" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="280" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14134,28 +14137,28 @@
         <v>255</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H280" s="3">
         <v>0</v>
       </c>
       <c r="I280" s="2" t="s">
-        <v>278</v>
+        <v>487</v>
       </c>
       <c r="J280" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K280" s="4">
-        <v>1.4807000000000001E-2</v>
+        <v>9.8709999999999996E-3</v>
       </c>
       <c r="L280" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="M280" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="281" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14175,28 +14178,28 @@
         <v>255</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H281" s="3">
         <v>0</v>
       </c>
       <c r="I281" s="2" t="s">
-        <v>492</v>
+        <v>461</v>
       </c>
       <c r="J281" s="3">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="K281" s="4">
-        <v>9.3775999999999998E-2</v>
+        <v>4.9355999999999997E-2</v>
       </c>
       <c r="L281" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="M281" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="282" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14210,34 +14213,34 @@
         <v>14</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>407</v>
+        <v>58</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>255</v>
+        <v>159</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>485</v>
+        <v>715</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>486</v>
+        <v>716</v>
       </c>
       <c r="H282" s="3">
         <v>0</v>
       </c>
       <c r="I282" s="2" t="s">
-        <v>487</v>
+        <v>162</v>
       </c>
       <c r="J282" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K282" s="4">
-        <v>9.8709999999999996E-3</v>
+        <v>3.6838999999999997E-2</v>
       </c>
       <c r="L282" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="M282" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="283" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14251,34 +14254,34 @@
         <v>14</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>407</v>
+        <v>58</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>255</v>
+        <v>155</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>493</v>
+        <v>718</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>494</v>
+        <v>719</v>
       </c>
       <c r="H283" s="3">
         <v>0</v>
       </c>
       <c r="I283" s="2" t="s">
-        <v>461</v>
+        <v>362</v>
       </c>
       <c r="J283" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K283" s="4">
-        <v>4.9355999999999997E-2</v>
+        <v>6.4468999999999999E-2</v>
       </c>
       <c r="L283" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="M283" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
   </sheetData>
